--- a/3DayCabLayout.xlsx
+++ b/3DayCabLayout.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7C34E1-37D9-4E02-8388-3B5C549B525D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C77384-D091-489F-AA74-4579B85ADA7A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="702" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <r>
       <rPr>
@@ -173,6 +173,15 @@
   </si>
   <si>
     <t>GAME (Conversations)</t>
+  </si>
+  <si>
+    <t>Daily Progress Bar</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Money Earned</t>
   </si>
 </sst>
 </file>
@@ -203,7 +212,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,6 +384,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -438,6 +471,10 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -941,7 +978,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,10 +988,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
@@ -962,10 +999,10 @@
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
@@ -1079,9 +1116,9 @@
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="1"/>
-      <c r="K10" s="7"/>
+      <c r="K10" s="31"/>
       <c r="L10" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1094,9 +1131,9 @@
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="1"/>
-      <c r="K11" s="21"/>
+      <c r="K11" s="33"/>
       <c r="L11" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1109,10 +1146,6 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="K12" s="4"/>
-      <c r="L12" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -1124,9 +1157,9 @@
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
       <c r="I13" s="1"/>
-      <c r="K13" s="22"/>
+      <c r="K13" s="7"/>
       <c r="L13" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1139,6 +1172,10 @@
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
       <c r="I14" s="1"/>
+      <c r="K14" s="21"/>
+      <c r="L14" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -1150,6 +1187,10 @@
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
       <c r="I15" s="1"/>
+      <c r="K15" s="4"/>
+      <c r="L15" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -1161,6 +1202,10 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
+      <c r="K16" s="22"/>
+      <c r="L16" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1170,10 +1215,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF950C8F-397A-4AAD-A571-78830848C754}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K9" sqref="K9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,10 +1228,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
@@ -1194,15 +1239,18 @@
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
@@ -1215,7 +1263,7 @@
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1229,7 +1277,7 @@
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
       <c r="K4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1243,7 +1291,7 @@
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
       <c r="K5" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1256,20 +1304,21 @@
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
-      <c r="K6" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="K7" s="5"/>
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
@@ -1281,9 +1330,9 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="K8" s="5"/>
+      <c r="K8" s="20"/>
       <c r="L8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1296,10 +1345,11 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="K9" s="20"/>
+      <c r="K9" s="15"/>
       <c r="L9" t="s">
-        <v>15</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="N9" s="23"/>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -1311,7 +1361,10 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="N10" s="23"/>
+      <c r="K10" s="31"/>
+      <c r="L10" t="s">
+        <v>24</v>
+      </c>
       <c r="O10" s="23"/>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1324,9 +1377,10 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="3"/>
+      <c r="K11" s="33"/>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
@@ -1338,12 +1392,6 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="24"/>
-      <c r="N12" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -1355,9 +1403,9 @@
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="9"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
@@ -1369,7 +1417,12 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="N14" s="23"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="24"/>
+      <c r="N14" t="s">
+        <v>16</v>
+      </c>
       <c r="O14" s="23"/>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1382,11 +1435,9 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="K15" s="25"/>
-      <c r="L15" t="s">
-        <v>13</v>
-      </c>
-      <c r="N15" s="23"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="9"/>
       <c r="O15" s="23"/>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1399,6 +1450,14 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
+      <c r="N16" s="23"/>
+    </row>
+    <row r="17" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K17" s="25"/>
+      <c r="L17" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1411,7 +1470,7 @@
   <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="U12" sqref="T10:U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,14 +1480,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
       <c r="K1" s="20"/>
@@ -1441,14 +1500,14 @@
       <c r="R1" s="5"/>
     </row>
     <row r="2" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
@@ -1461,14 +1520,14 @@
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
@@ -1484,14 +1543,14 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
@@ -1639,6 +1698,10 @@
       <c r="P10" s="25"/>
       <c r="Q10" s="25"/>
       <c r="R10" s="25"/>
+      <c r="T10" s="15"/>
+      <c r="U10" t="s">
+        <v>23</v>
+      </c>
       <c r="W10" s="23"/>
       <c r="X10" s="23"/>
     </row>
@@ -1661,10 +1724,10 @@
       <c r="P11" s="25"/>
       <c r="Q11" s="25"/>
       <c r="R11" s="25"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="15"/>
+      <c r="T11" s="31"/>
+      <c r="U11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
@@ -1685,61 +1748,54 @@
       <c r="P12" s="25"/>
       <c r="Q12" s="25"/>
       <c r="R12" s="25"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="22"/>
-      <c r="X12" t="s">
-        <v>17</v>
+      <c r="T12" s="33"/>
+      <c r="U12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="13"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
     </row>
     <row r="14" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="12"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
@@ -1760,6 +1816,13 @@
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="22"/>
+      <c r="X15" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
@@ -1775,13 +1838,17 @@
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
       <c r="R16" s="8"/>
-    </row>
-    <row r="17" spans="1:21" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T16" s="14"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="13"/>
+    </row>
+    <row r="17" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1795,17 +1862,17 @@
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
       <c r="R17" s="8"/>
-      <c r="T17" s="25"/>
-      <c r="U17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T17" s="30"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="12"/>
+    </row>
+    <row r="18" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1819,13 +1886,13 @@
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
       <c r="R18" s="8"/>
     </row>
-    <row r="19" spans="1:21" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1839,13 +1906,13 @@
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
       <c r="R19" s="8"/>
     </row>
-    <row r="20" spans="1:21" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -1864,8 +1931,12 @@
       <c r="P20" s="22"/>
       <c r="Q20" s="22"/>
       <c r="R20" s="8"/>
-    </row>
-    <row r="21" spans="1:21" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T20" s="25"/>
+      <c r="U20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -1885,7 +1956,7 @@
       <c r="Q21" s="22"/>
       <c r="R21" s="8"/>
     </row>
-    <row r="22" spans="1:21" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -1905,7 +1976,7 @@
       <c r="Q22" s="22"/>
       <c r="R22" s="8"/>
     </row>
-    <row r="23" spans="1:21" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -1925,7 +1996,7 @@
       <c r="Q23" s="22"/>
       <c r="R23" s="8"/>
     </row>
-    <row r="24" spans="1:21" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -1945,7 +2016,7 @@
       <c r="Q24" s="13"/>
       <c r="R24" s="8"/>
     </row>
-    <row r="25" spans="1:21" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -1965,7 +2036,7 @@
       <c r="Q25" s="13"/>
       <c r="R25" s="8"/>
     </row>
-    <row r="26" spans="1:21" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -1985,7 +2056,7 @@
       <c r="Q26" s="13"/>
       <c r="R26" s="8"/>
     </row>
-    <row r="27" spans="1:21" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -2005,7 +2076,7 @@
       <c r="Q27" s="13"/>
       <c r="R27" s="8"/>
     </row>
-    <row r="28" spans="1:21" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
@@ -2025,7 +2096,7 @@
       <c r="Q28" s="12"/>
       <c r="R28" s="8"/>
     </row>
-    <row r="29" spans="1:21" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -2045,7 +2116,7 @@
       <c r="Q29" s="12"/>
       <c r="R29" s="8"/>
     </row>
-    <row r="30" spans="1:21" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
@@ -2065,7 +2136,7 @@
       <c r="Q30" s="12"/>
       <c r="R30" s="8"/>
     </row>
-    <row r="31" spans="1:21" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
@@ -2085,7 +2156,7 @@
       <c r="Q31" s="12"/>
       <c r="R31" s="8"/>
     </row>
-    <row r="32" spans="1:21" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -2115,8 +2186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E639A2-671D-450D-93BE-F659B1559E71}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2126,10 +2197,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
@@ -2137,10 +2208,10 @@
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
@@ -2204,15 +2275,15 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
@@ -2267,9 +2338,9 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="8"/>
-      <c r="K11" s="11"/>
+      <c r="K11" s="15"/>
       <c r="L11" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2282,6 +2353,10 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="8"/>
+      <c r="K12" s="31"/>
+      <c r="L12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -2293,6 +2368,10 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="8"/>
+      <c r="K13" s="33"/>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
@@ -2317,6 +2396,10 @@
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="8"/>
+      <c r="K15" s="11"/>
+      <c r="L15" t="s">
+        <v>14</v>
+      </c>
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
     </row>

--- a/3DayCabLayout.xlsx
+++ b/3DayCabLayout.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C77384-D091-489F-AA74-4579B85ADA7A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A896AE9-1322-4981-8344-5BDC72AE78CC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="702" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -758,7 +758,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,7 +1218,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9:L9"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1470,7 +1470,7 @@
   <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U12" sqref="T10:U12"/>
+      <selection activeCell="Z28" sqref="Z28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2187,7 +2187,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
